--- a/biology/Botanique/Jean-Michel_Deluc/Jean-Michel_Deluc.xlsx
+++ b/biology/Botanique/Jean-Michel_Deluc/Jean-Michel_Deluc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Deluc est un sommelier français, né le 5 septembre 1955 à Auch (dans le Gers). Il est maître sommelier de l'Union de la sommellerie française (UDSF).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Deluc est né le 5 septembre 1955, à Auch dans le Gers. Il commence ses études d'hôtellerie à l’École Hôtelière de Toulouse et obtient son Diplôme de Salle en 1974.
 Il part ensuite au Royaume-Uni où il obtient en 1978, le diplôme de sommellerie de l’Association des sommeliers de Grande-Bretagne et où il commence sa carrière.
@@ -543,13 +557,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel Deluc commence sa carrière au Restaurant Pujol à Toulouse, puis au Café Royal à Londres. Il œuvre en tant que chef sommelier au restaurant Drouant de 1987 à 1990[1]. 
-De 1994 à 1997, l'Hôtel Ritz (Paris) lui propose la Sommellerie en chef de l'établissement[2], après 4 ans en tant que Chef Sommelier du restaurant 2 étoiles de l'hôtel l'Espadon.
-De 1999 à 2010, il est sommelier, cofondateur de ChateauOnline[3].
-En 2004, il cofonde le Grand Prix d'Austerlitz des vins tchèques et moraves à Paris[4].
-En 2004, il accède à la reconnaissance internationale en devenant jury Starwine aux États-Unis, regroupant les 60 meilleurs dégustateurs du monde pour désigner les meilleurs vins de la planète [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Deluc commence sa carrière au Restaurant Pujol à Toulouse, puis au Café Royal à Londres. Il œuvre en tant que chef sommelier au restaurant Drouant de 1987 à 1990. 
+De 1994 à 1997, l'Hôtel Ritz (Paris) lui propose la Sommellerie en chef de l'établissement, après 4 ans en tant que Chef Sommelier du restaurant 2 étoiles de l'hôtel l'Espadon.
+De 1999 à 2010, il est sommelier, cofondateur de ChateauOnline.
+En 2004, il cofonde le Grand Prix d'Austerlitz des vins tchèques et moraves à Paris.
+En 2004, il accède à la reconnaissance internationale en devenant jury Starwine aux États-Unis, regroupant les 60 meilleurs dégustateurs du monde pour désigner les meilleurs vins de la planète .
 En 2007, il reprend la direction de l'Académie du vin, crée en 1973 par Steven Spurrier.
 Depuis 2011, il est le sommelier cofondateur de la start-up française Le Petit Ballon en France.
 </t>
@@ -580,15 +596,17 @@
           <t>Implication associative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1986 à 1990, secrétaire général de l’Union des sommeliers de France (19 associations) 1986/90
 De 1990 à 1996, secrétaire général de l’Association de la sommellerie internationale (23 pays)
 De 1998 à 2004, vice-président de l’Association des sommeliers de Paris.
 De 2004 à 2007, président de l’Association des sommeliers de Paris-Île-de-France
-À partir de Janvier 2018, secrétaire général des amis de l'Octuor de France[6]
+À partir de Janvier 2018, secrétaire général des amis de l'Octuor de France
 Octobre 2018 : fondateur du festival de Porto
-Il a également été membre du jury de plusieurs concours de sommeliers (Sopexa, Ruinart, Meilleur sommelier du monde…)[7].
+Il a également été membre du jury de plusieurs concours de sommeliers (Sopexa, Ruinart, Meilleur sommelier du monde…).
 </t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Michel Deluc participe à la rédaction des Guides de vins, Fleurus, Gault &amp; Millau, Hachette des vins Bio[8].60 millions de consommateurs.  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Michel Deluc participe à la rédaction des Guides de vins, Fleurus, Gault &amp; Millau, Hachette des vins Bio.60 millions de consommateurs.  
 Secrétaire Général des amis de l'Octuor de France, il a participé à la création du festival VINIMUSIS à Paris ainsi que du Festival Culinart à Pont-Aven. 
 </t>
         </is>
@@ -649,11 +669,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Livre de cave chez Gründ [9]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Livre de cave chez Gründ 
 Le vin essence de Vie avec Carline Arnaud, aux éditions DIE.
-Grand Larousse du Vin 2009[10]
+Grand Larousse du Vin 2009
 Guide des cubis "les 100 meilleurs et les dix plus mauvais" </t>
         </is>
       </c>
